--- a/meritve.xlsx
+++ b/meritve.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matijazanjkovic/Local Documents/um/year02/semester02/FE3/Projektna/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matijazanjkovic/Local Documents/um/year02/semester02/FE3/Projektna/github/Projektna_FE3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A434A06-C19E-B94F-BC5B-A49B78B7E171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7DB74B-AFD3-A44A-84D6-C656FAFF11C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14900" xr2:uid="{9B7D6FFF-4AA2-EB49-9370-749C5D5BABB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>V_s [g]</t>
-  </si>
-  <si>
-    <t>\Delta V_s [g]</t>
-  </si>
-  <si>
-    <t>m_v [mL]</t>
-  </si>
-  <si>
-    <t>\Delta m_v [mL]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>c [g/mL]</t>
   </si>
@@ -59,10 +47,31 @@
     <t>\sigma c</t>
   </si>
   <si>
-    <t>\lambda</t>
-  </si>
-  <si>
     <t>\Delta \lambda</t>
+  </si>
+  <si>
+    <t>“</t>
+  </si>
+  <si>
+    <t>m_s [g]</t>
+  </si>
+  <si>
+    <t>\Delta m_s [g]</t>
+  </si>
+  <si>
+    <t>V_v [mL]</t>
+  </si>
+  <si>
+    <t>\Delta V_v [mL]</t>
+  </si>
+  <si>
+    <t>\lambda [nm]</t>
+  </si>
+  <si>
+    <t>[\alpha]\lambda</t>
+  </si>
+  <si>
+    <t>\alpha</t>
   </si>
 </sst>
 </file>
@@ -434,49 +443,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69F365B-ACF5-FD47-98C8-AD004DC6E611}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -500,6 +517,63 @@
       <c r="G2">
         <f>E2*F2</f>
         <v>2E-3</v>
+      </c>
+      <c r="H2">
+        <v>633</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>68</v>
+      </c>
+      <c r="K2">
+        <f>J2/(E2*$L$2)*10</f>
+        <v>59.492563429571305</v>
+      </c>
+      <c r="L2">
+        <v>114.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <f>A3/C3</f>
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <f>B3/A3+D3/C3</f>
+        <v>0.02</v>
+      </c>
+      <c r="G3">
+        <f>E3*F3</f>
+        <v>2E-3</v>
+      </c>
+      <c r="H3">
+        <v>532</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f>J3/(E3*$L$2)*10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meritve.xlsx
+++ b/meritve.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matijazanjkovic/Local Documents/um/year02/semester02/FE3/Projektna/github/Projektna_FE3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Matija-C\šola\um\FE3\Projektna_FE3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7DB74B-AFD3-A44A-84D6-C656FAFF11C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454C2BE5-A8BE-40C5-89B7-0639E8331D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14900" xr2:uid="{9B7D6FFF-4AA2-EB49-9370-749C5D5BABB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B7D6FFF-4AA2-EB49-9370-749C5D5BABB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Napake" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,48 +37,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>c [g/mL]</t>
+    <t>c</t>
   </si>
   <si>
-    <t>\Delta c</t>
+    <t>\alpha r</t>
   </si>
   <si>
-    <t>\sigma c</t>
+    <t>\alpha z</t>
   </si>
   <si>
-    <t>\Delta \lambda</t>
-  </si>
-  <si>
-    <t>“</t>
-  </si>
-  <si>
-    <t>m_s [g]</t>
-  </si>
-  <si>
-    <t>\Delta m_s [g]</t>
-  </si>
-  <si>
-    <t>V_v [mL]</t>
-  </si>
-  <si>
-    <t>\Delta V_v [mL]</t>
-  </si>
-  <si>
-    <t>\lambda [nm]</t>
-  </si>
-  <si>
-    <t>[\alpha]\lambda</t>
-  </si>
-  <si>
-    <t>\alpha</t>
+    <t>V_vode [mL]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -107,11 +87,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -127,9 +108,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pisarna">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -167,7 +148,7 @@
         <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pisarna">
       <a:majorFont>
         <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
@@ -273,7 +254,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pisarna">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -443,137 +424,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69F365B-ACF5-FD47-98C8-AD004DC6E611}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="B2">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="B4">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B5">
+        <v>115</v>
+      </c>
+      <c r="C5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="B6">
+        <v>131</v>
+      </c>
+      <c r="C6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B7">
+        <v>137</v>
+      </c>
+      <c r="C7">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886349DC-4CE6-4B22-9A25-283016A64739}">
+  <dimension ref="J1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <f>A2/C2</f>
-        <v>0.1</v>
-      </c>
-      <c r="F2">
-        <f>B2/A2+D2/C2</f>
-        <v>0.02</v>
-      </c>
-      <c r="G2">
-        <f>E2*F2</f>
-        <v>2E-3</v>
-      </c>
-      <c r="H2">
-        <v>633</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="2" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J2">
-        <v>68</v>
-      </c>
-      <c r="K2">
-        <f>J2/(E2*$L$2)*10</f>
-        <v>59.492563429571305</v>
-      </c>
-      <c r="L2">
-        <v>114.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <f>A3/C3</f>
-        <v>0.1</v>
-      </c>
-      <c r="F3">
-        <f>B3/A3+D3/C3</f>
-        <v>0.02</v>
-      </c>
-      <c r="G3">
-        <f>E3*F3</f>
-        <v>2E-3</v>
-      </c>
-      <c r="H3">
-        <v>532</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <f>J3/(E3*$L$2)*10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H19" t="s">
-        <v>4</v>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/meritve.xlsx
+++ b/meritve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Matija-C\šola\um\FE3\Projektna_FE3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matijazanjkovic/Local Documents/um/year02/semester02/FE3/Projektna/github/Projektna_FE3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454C2BE5-A8BE-40C5-89B7-0639E8331D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B8C8D0-7C22-0944-A656-3A4501860298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B7D6FFF-4AA2-EB49-9370-749C5D5BABB3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{9B7D6FFF-4AA2-EB49-9370-749C5D5BABB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -108,9 +108,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pisarna">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,7 +148,7 @@
         <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pisarna">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
@@ -254,7 +254,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pisarna">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,16 +430,16 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -461,7 +461,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.03</v>
       </c>
@@ -472,7 +472,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.05</v>
       </c>
@@ -483,7 +483,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -494,7 +494,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.09</v>
       </c>
@@ -505,7 +505,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.1</v>
       </c>
@@ -529,17 +529,17 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J2">
         <v>3000</v>
       </c>

--- a/meritve.xlsx
+++ b/meritve.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matijazanjkovic/Local Documents/um/year02/semester02/FE3/Projektna/github/Projektna_FE3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B8C8D0-7C22-0944-A656-3A4501860298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35A39A7-BA09-D248-B7C8-856902034F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{9B7D6FFF-4AA2-EB49-9370-749C5D5BABB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Napake" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Napake" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>c</t>
   </si>
@@ -424,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69F365B-ACF5-FD47-98C8-AD004DC6E611}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F1" sqref="F1:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,7 +440,7 @@
     <col min="10" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,18 +451,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.03</v>
       </c>
@@ -471,8 +472,9 @@
       <c r="C3">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.05</v>
       </c>
@@ -482,8 +484,9 @@
       <c r="C4">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -493,8 +496,9 @@
       <c r="C5">
         <v>126</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.09</v>
       </c>
@@ -504,8 +508,9 @@
       <c r="C6">
         <v>136</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.1</v>
       </c>
@@ -515,6 +520,7 @@
       <c r="C7">
         <v>143</v>
       </c>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -522,6 +528,98 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA303C7E-AA19-5D4E-8F38-51F71E9981BD}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="B4">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B5">
+        <v>115</v>
+      </c>
+      <c r="C5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="B6">
+        <v>131</v>
+      </c>
+      <c r="C6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B7">
+        <v>137</v>
+      </c>
+      <c r="C7">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886349DC-4CE6-4B22-9A25-283016A64739}">
   <dimension ref="J1:J2"/>
   <sheetViews>

--- a/meritve.xlsx
+++ b/meritve.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matijazanjkovic/Local Documents/um/year02/semester02/FE3/Projektna/github/Projektna_FE3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35A39A7-BA09-D248-B7C8-856902034F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FB222C-5209-4E4D-A63B-7121EF12F4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{9B7D6FFF-4AA2-EB49-9370-749C5D5BABB3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="12800" windowHeight="15500" activeTab="1" xr2:uid="{9B7D6FFF-4AA2-EB49-9370-749C5D5BABB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Napake" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -427,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69F365B-ACF5-FD47-98C8-AD004DC6E611}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA303C7E-AA19-5D4E-8F38-51F71E9981BD}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
@@ -645,4 +646,125 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526E78CB-65AA-6E4E-9CFE-9EB1F53FB552}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>68</v>
+      </c>
+      <c r="C1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>96</v>
+      </c>
+      <c r="F2">
+        <f>B2-B$1</f>
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <f>C2-C$1</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="B3">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>110</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:G6" si="0">B3-B$1</f>
+        <v>34</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B4">
+        <v>115</v>
+      </c>
+      <c r="C4">
+        <v>126</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="B5">
+        <v>131</v>
+      </c>
+      <c r="C5">
+        <v>136</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B6">
+        <v>137</v>
+      </c>
+      <c r="C6">
+        <v>143</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>